--- a/output/df_age.xlsx
+++ b/output/df_age.xlsx
@@ -1,68 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoparga/Documents/mj/mj_fare_free_mtl/mj_fair_pass/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52FB80F-048A-C740-93D8-8EAC2A85E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Age groups (5 years intervals)</t>
-  </si>
-  <si>
-    <t>Age 65-69</t>
-  </si>
-  <si>
-    <t>Age 70-74</t>
-  </si>
-  <si>
-    <t>Age 75-79</t>
-  </si>
-  <si>
-    <t>Age 80-84</t>
-  </si>
-  <si>
-    <t>Age 85-89</t>
-  </si>
-  <si>
-    <t>Age 90 and over</t>
-  </si>
-  <si>
-    <t>(Missing)</t>
-  </si>
-  <si>
-    <t>Characteristic</t>
-  </si>
-  <si>
-    <t>Control, N = 77</t>
-  </si>
-  <si>
-    <t>Treatment, N = 480</t>
-  </si>
-  <si>
-    <t>Overall, N = 557</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">**Characteristic**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Control**  
+N = 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Treatment**  
+N = 480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Overall**  
+N = 557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age groups (5 years intervals)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age 65-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age 70-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age 75-79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age 80-84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age 85-89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age 90 and over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Missing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -91,24 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -390,134 +429,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>